--- a/Source/Tech Tree/SOLIDS Cost Comparisons KCT Formula.xlsx
+++ b/Source/Tech Tree/SOLIDS Cost Comparisons KCT Formula.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\GAMES\KSP\Git\RP-0\Source\Tech Tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pap\Dropbox\GAMES\KSP\Git\RP-0\Source\Tech Tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282AC8FB-E69D-438F-8047-F81D6F673E50}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="PV">Sheet1!$B$1</definedName>
     <definedName name="SYBC">Sheet1!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Part Variable</t>
   </si>
@@ -271,12 +272,18 @@
   </si>
   <si>
     <t>0.18 BP</t>
+  </si>
+  <si>
+    <t>GOAL EF</t>
+  </si>
+  <si>
+    <t>GOAL BP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,7 +415,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -647,24 +710,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -741,13 +786,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -772,6 +810,13 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -810,56 +855,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Parts" displayName="Parts" ref="A1:P54" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
-  <autoFilter ref="A1:P54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Parts" displayName="Parts" ref="A1:R54" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:R54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:B165">
     <sortCondition ref="A1:A165"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Title" dataDxfId="15"/>
-    <tableColumn id="2" name="Current Cost" dataDxfId="14"/>
-    <tableColumn id="3" name="0.75 Cost" dataDxfId="13">
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Current Cost" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="0.75 Cost" dataDxfId="15">
       <calculatedColumnFormula>ROUND(Parts[[#This Row],[Current Cost]]*0.75,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="0.5 Cost" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="0.5 Cost" dataDxfId="0">
       <calculatedColumnFormula>ROUND(Parts[[#This Row],[Current Cost]]*0.5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="0.25 Cost" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="0.25 Cost" dataDxfId="14">
       <calculatedColumnFormula>ROUND(Parts[[#This Row],[Current Cost]]*0.25,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="0.18 Cost" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="0.18 Cost" dataDxfId="13">
       <calculatedColumnFormula>ROUND(Parts[[#This Row],[Current Cost]]*0.18,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Current EF" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Current EF" dataDxfId="12">
       <calculatedColumnFormula>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="0.75 EF" dataDxfId="8">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="0.75 EF" dataDxfId="11">
       <calculatedColumnFormula>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="0.5 EF" dataDxfId="7">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="0.5 EF" dataDxfId="10">
       <calculatedColumnFormula>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="0.25 EF" dataDxfId="6">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="0.25 EF" dataDxfId="9">
       <calculatedColumnFormula>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="0.18 EF" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="0.18 EF" dataDxfId="8">
       <calculatedColumnFormula>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Current BP" dataDxfId="4">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Current BP" dataDxfId="7">
       <calculatedColumnFormula>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="0.75 BP" dataDxfId="3">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="0.75 BP" dataDxfId="6">
       <calculatedColumnFormula>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="0.5 BP" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="0.5 BP" dataDxfId="5">
       <calculatedColumnFormula>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="0.25 BP" dataDxfId="1">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="0.25 BP" dataDxfId="4">
       <calculatedColumnFormula>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="0.18 BP" dataDxfId="0">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="0.18 BP" dataDxfId="3">
       <calculatedColumnFormula>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="7" xr3:uid="{B22D4A23-3187-44C4-B8D2-CAE23AD26B57}" name="GOAL EF" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{0B3AF81A-33ED-41D1-B8DC-D225B75175C2}" name="GOAL BP" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1127,19 +1174,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1150,21 +1197,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1195,7 +1242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1216,22 +1263,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1280,8 +1331,14 @@
       <c r="P1" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1306,46 +1363,52 @@
       </c>
       <c r="G2" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>5846.5000000000009</v>
+        <v>2657.5</v>
       </c>
       <c r="H2" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>4384.6000000000004</v>
+        <v>1993</v>
       </c>
       <c r="I2" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2923.8</v>
+        <v>1329</v>
       </c>
       <c r="J2" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1461.9</v>
+        <v>664.5</v>
       </c>
       <c r="K2" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>478.5</v>
+      </c>
+      <c r="L2" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>2011875</v>
+      </c>
+      <c r="M2" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>1513500</v>
+      </c>
+      <c r="N2" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1015500</v>
+      </c>
+      <c r="O2" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>517125</v>
+      </c>
+      <c r="P2" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>377625</v>
+      </c>
+      <c r="Q2" s="13">
         <v>1052.7</v>
       </c>
-      <c r="L2" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>4403625.0000000009</v>
-      </c>
-      <c r="M2" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>3307200</v>
-      </c>
-      <c r="N2" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>2211600</v>
-      </c>
-      <c r="O2" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1115175</v>
-      </c>
-      <c r="P2" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R2" s="13">
         <v>808275</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1370,46 +1433,52 @@
       </c>
       <c r="G3" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>24259.4</v>
+        <v>11027</v>
       </c>
       <c r="H3" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>18195.100000000002</v>
+        <v>8270.5</v>
       </c>
       <c r="I3" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>12129.7</v>
+        <v>5513.5</v>
       </c>
       <c r="J3" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>6065.4000000000005</v>
+        <v>2757</v>
       </c>
       <c r="K3" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>1985</v>
+      </c>
+      <c r="L3" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>8289000</v>
+      </c>
+      <c r="M3" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>6221625</v>
+      </c>
+      <c r="N3" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>4153875</v>
+      </c>
+      <c r="O3" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>2086500</v>
+      </c>
+      <c r="P3" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>1507500</v>
+      </c>
+      <c r="Q3" s="13">
         <v>4367</v>
       </c>
-      <c r="L3" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>18213300</v>
-      </c>
-      <c r="M3" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>13665075.000000004</v>
-      </c>
-      <c r="N3" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>9116025</v>
-      </c>
-      <c r="O3" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>4567800.0000000009</v>
-      </c>
-      <c r="P3" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R3" s="13">
         <v>3294000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1434,46 +1503,52 @@
       </c>
       <c r="G4" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2640</v>
+        <v>1200</v>
       </c>
       <c r="H4" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1980.0000000000002</v>
+        <v>900</v>
       </c>
       <c r="I4" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1320</v>
+        <v>600</v>
       </c>
       <c r="J4" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="K4" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>216</v>
+      </c>
+      <c r="L4" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>918750</v>
+      </c>
+      <c r="M4" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>693750</v>
+      </c>
+      <c r="N4" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>468750</v>
+      </c>
+      <c r="O4" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>243750</v>
+      </c>
+      <c r="P4" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>180750</v>
+      </c>
+      <c r="Q4" s="13">
         <v>475.20000000000005</v>
       </c>
-      <c r="L4" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>1998750</v>
-      </c>
-      <c r="M4" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>1503750.0000000005</v>
-      </c>
-      <c r="N4" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>1008750</v>
-      </c>
-      <c r="O4" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>513750</v>
-      </c>
-      <c r="P4" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R4" s="13">
         <v>375150</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
@@ -1498,46 +1573,52 @@
       </c>
       <c r="G5" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>187.00000000000003</v>
+        <v>85</v>
       </c>
       <c r="H5" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>140.80000000000001</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>93.500000000000014</v>
+        <v>42.5</v>
       </c>
       <c r="J5" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>47.300000000000004</v>
+        <v>21.5</v>
       </c>
       <c r="K5" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>15.5</v>
+      </c>
+      <c r="L5" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>82500</v>
+      </c>
+      <c r="M5" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>66750</v>
+      </c>
+      <c r="N5" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>50625</v>
+      </c>
+      <c r="O5" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>34875</v>
+      </c>
+      <c r="P5" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>30375</v>
+      </c>
+      <c r="Q5" s="13">
         <v>34.1</v>
       </c>
-      <c r="L5" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>159000</v>
-      </c>
-      <c r="M5" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>124350</v>
-      </c>
-      <c r="N5" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>88875</v>
-      </c>
-      <c r="O5" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>54225</v>
-      </c>
-      <c r="P5" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R5" s="13">
         <v>44325</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -1562,46 +1643,52 @@
       </c>
       <c r="G6" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>220.00000000000003</v>
+        <v>100</v>
       </c>
       <c r="H6" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="I6" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>110.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="J6" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>55.000000000000007</v>
+        <v>25</v>
       </c>
       <c r="K6" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>18</v>
+      </c>
+      <c r="L6" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>93750</v>
+      </c>
+      <c r="M6" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>75000</v>
+      </c>
+      <c r="N6" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>56250</v>
+      </c>
+      <c r="O6" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>37500</v>
+      </c>
+      <c r="P6" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>32250</v>
+      </c>
+      <c r="Q6" s="13">
         <v>39.6</v>
       </c>
-      <c r="L6" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>183750.00000000006</v>
-      </c>
-      <c r="M6" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>142500</v>
-      </c>
-      <c r="N6" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>101250.00000000003</v>
-      </c>
-      <c r="O6" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>60000.000000000015</v>
-      </c>
-      <c r="P6" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R6" s="13">
         <v>48450</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1626,46 +1713,52 @@
       </c>
       <c r="G7" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H7" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>25.3</v>
+        <v>11.5</v>
       </c>
       <c r="I7" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>16.5</v>
+        <v>7.5</v>
       </c>
       <c r="J7" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>8.8000000000000007</v>
+        <v>4</v>
       </c>
       <c r="K7" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>30000</v>
+      </c>
+      <c r="M7" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>27375</v>
+      </c>
+      <c r="N7" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>24375</v>
+      </c>
+      <c r="O7" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>21750</v>
+      </c>
+      <c r="P7" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>20625</v>
+      </c>
+      <c r="Q7" s="13">
         <v>5.5</v>
       </c>
-      <c r="L7" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>43500</v>
-      </c>
-      <c r="M7" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>37725</v>
-      </c>
-      <c r="N7" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>31125</v>
-      </c>
-      <c r="O7" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>25350</v>
-      </c>
-      <c r="P7" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R7" s="13">
         <v>22875</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -1690,46 +1783,52 @@
       </c>
       <c r="G8" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>363.00000000000006</v>
+        <v>165</v>
       </c>
       <c r="H8" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>272.8</v>
+        <v>124</v>
       </c>
       <c r="I8" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>181.50000000000003</v>
+        <v>82.5</v>
       </c>
       <c r="J8" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>91.300000000000011</v>
+        <v>41.5</v>
       </c>
       <c r="K8" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>29.5</v>
+      </c>
+      <c r="L8" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>142500</v>
+      </c>
+      <c r="M8" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>111750</v>
+      </c>
+      <c r="N8" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>80625</v>
+      </c>
+      <c r="O8" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>49875</v>
+      </c>
+      <c r="P8" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>40875</v>
+      </c>
+      <c r="Q8" s="13">
         <v>64.900000000000006</v>
       </c>
-      <c r="L8" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>291000.00000000006</v>
-      </c>
-      <c r="M8" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>223350</v>
-      </c>
-      <c r="N8" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>154875</v>
-      </c>
-      <c r="O8" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>87225</v>
-      </c>
-      <c r="P8" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R8" s="13">
         <v>67425</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1754,46 +1853,52 @@
       </c>
       <c r="G9" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>99.000000000000014</v>
+        <v>45</v>
       </c>
       <c r="H9" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>74.800000000000011</v>
+        <v>34</v>
       </c>
       <c r="I9" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>49.500000000000007</v>
+        <v>22.5</v>
       </c>
       <c r="J9" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>25.3</v>
+        <v>11.5</v>
       </c>
       <c r="K9" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>8</v>
+      </c>
+      <c r="L9" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>52500</v>
+      </c>
+      <c r="M9" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>44250</v>
+      </c>
+      <c r="N9" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>35625</v>
+      </c>
+      <c r="O9" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>27375</v>
+      </c>
+      <c r="P9" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>24750</v>
+      </c>
+      <c r="Q9" s="13">
         <v>17.600000000000001</v>
       </c>
-      <c r="L9" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>93000</v>
-      </c>
-      <c r="M9" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>74850.000000000015</v>
-      </c>
-      <c r="N9" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>55875</v>
-      </c>
-      <c r="O9" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>37725</v>
-      </c>
-      <c r="P9" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R9" s="13">
         <v>31950</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1818,46 +1923,52 @@
       </c>
       <c r="G10" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="H10" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>247.50000000000003</v>
+        <v>112.5</v>
       </c>
       <c r="I10" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="J10" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>82.5</v>
+        <v>37.5</v>
       </c>
       <c r="K10" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>27</v>
+      </c>
+      <c r="L10" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>131250</v>
+      </c>
+      <c r="M10" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>103125</v>
+      </c>
+      <c r="N10" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>75000</v>
+      </c>
+      <c r="O10" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>46875</v>
+      </c>
+      <c r="P10" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>39000</v>
+      </c>
+      <c r="Q10" s="13">
         <v>59.400000000000006</v>
       </c>
-      <c r="L10" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>266250</v>
-      </c>
-      <c r="M10" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>204375.00000000006</v>
-      </c>
-      <c r="N10" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>142500</v>
-      </c>
-      <c r="O10" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>80625</v>
-      </c>
-      <c r="P10" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R10" s="13">
         <v>63300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1882,46 +1993,52 @@
       </c>
       <c r="G11" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>11693.000000000002</v>
+        <v>5315</v>
       </c>
       <c r="H11" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>8770.3000000000011</v>
+        <v>3986.5</v>
       </c>
       <c r="I11" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>5846.5000000000009</v>
+        <v>2657.5</v>
       </c>
       <c r="J11" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2923.8</v>
+        <v>1329</v>
       </c>
       <c r="K11" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>956.5</v>
+      </c>
+      <c r="L11" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>4005000</v>
+      </c>
+      <c r="M11" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>3008625</v>
+      </c>
+      <c r="N11" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>2011875</v>
+      </c>
+      <c r="O11" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>1015500</v>
+      </c>
+      <c r="P11" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>736125</v>
+      </c>
+      <c r="Q11" s="13">
         <v>2104.3000000000002</v>
       </c>
-      <c r="L11" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>8788500.0000000019</v>
-      </c>
-      <c r="M11" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>6596475.0000000019</v>
-      </c>
-      <c r="N11" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>4403625.0000000009</v>
-      </c>
-      <c r="O11" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>2211600</v>
-      </c>
-      <c r="P11" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R11" s="13">
         <v>1596975</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
@@ -1946,46 +2063,52 @@
       </c>
       <c r="G12" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>352</v>
+        <v>160</v>
       </c>
       <c r="H12" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="I12" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="J12" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="K12" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>29</v>
+      </c>
+      <c r="L12" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>138750</v>
+      </c>
+      <c r="M12" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>108750</v>
+      </c>
+      <c r="N12" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>78750</v>
+      </c>
+      <c r="O12" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>48750</v>
+      </c>
+      <c r="P12" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>40500</v>
+      </c>
+      <c r="Q12" s="13">
         <v>63.800000000000004</v>
       </c>
-      <c r="L12" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>282750</v>
-      </c>
-      <c r="M12" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>216750</v>
-      </c>
-      <c r="N12" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>150750</v>
-      </c>
-      <c r="O12" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>84750</v>
-      </c>
-      <c r="P12" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R12" s="13">
         <v>66600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -2010,46 +2133,52 @@
       </c>
       <c r="G13" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>462.00000000000006</v>
+        <v>210</v>
       </c>
       <c r="H13" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>346.5</v>
+        <v>157.5</v>
       </c>
       <c r="I13" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>231.00000000000003</v>
+        <v>105</v>
       </c>
       <c r="J13" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>115.50000000000001</v>
+        <v>52.5</v>
       </c>
       <c r="K13" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>38</v>
+      </c>
+      <c r="L13" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>176250</v>
+      </c>
+      <c r="M13" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>136875</v>
+      </c>
+      <c r="N13" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>97500</v>
+      </c>
+      <c r="O13" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>58125</v>
+      </c>
+      <c r="P13" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>47250</v>
+      </c>
+      <c r="Q13" s="13">
         <v>83.600000000000009</v>
       </c>
-      <c r="L13" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>365250.00000000012</v>
-      </c>
-      <c r="M13" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>278625</v>
-      </c>
-      <c r="N13" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>192000.00000000006</v>
-      </c>
-      <c r="O13" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>105375.00000000003</v>
-      </c>
-      <c r="P13" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R13" s="13">
         <v>81450</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -2074,46 +2203,52 @@
       </c>
       <c r="G14" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>825.00000000000011</v>
+        <v>375</v>
       </c>
       <c r="H14" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>619.30000000000007</v>
+        <v>281.5</v>
       </c>
       <c r="I14" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>412.50000000000006</v>
+        <v>187.5</v>
       </c>
       <c r="J14" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>206.8</v>
+        <v>94</v>
       </c>
       <c r="K14" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>67.5</v>
+      </c>
+      <c r="L14" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>300000</v>
+      </c>
+      <c r="M14" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>229875</v>
+      </c>
+      <c r="N14" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>159375</v>
+      </c>
+      <c r="O14" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>89250</v>
+      </c>
+      <c r="P14" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>69375</v>
+      </c>
+      <c r="Q14" s="13">
         <v>148.5</v>
       </c>
-      <c r="L14" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>637500.00000000023</v>
-      </c>
-      <c r="M14" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>483225.00000000012</v>
-      </c>
-      <c r="N14" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>328125.00000000012</v>
-      </c>
-      <c r="O14" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>173850</v>
-      </c>
-      <c r="P14" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R14" s="13">
         <v>130125</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -2138,46 +2273,52 @@
       </c>
       <c r="G15" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1650.0000000000002</v>
+        <v>750</v>
       </c>
       <c r="H15" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1237.5</v>
+        <v>562.5</v>
       </c>
       <c r="I15" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>825.00000000000011</v>
+        <v>375</v>
       </c>
       <c r="J15" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>412.50000000000006</v>
+        <v>187.5</v>
       </c>
       <c r="K15" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>135</v>
+      </c>
+      <c r="L15" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>581250</v>
+      </c>
+      <c r="M15" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>440625</v>
+      </c>
+      <c r="N15" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>300000</v>
+      </c>
+      <c r="O15" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>159375</v>
+      </c>
+      <c r="P15" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>120000</v>
+      </c>
+      <c r="Q15" s="13">
         <v>297</v>
       </c>
-      <c r="L15" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>1256250.0000000005</v>
-      </c>
-      <c r="M15" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>946875</v>
-      </c>
-      <c r="N15" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>637500.00000000023</v>
-      </c>
-      <c r="O15" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>328125.00000000012</v>
-      </c>
-      <c r="P15" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R15" s="13">
         <v>241500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -2202,46 +2343,52 @@
       </c>
       <c r="G16" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>397.1</v>
+        <v>180.5</v>
       </c>
       <c r="H16" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>298.10000000000002</v>
+        <v>135.5</v>
       </c>
       <c r="I16" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>199.10000000000002</v>
+        <v>90.5</v>
       </c>
       <c r="J16" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>99.000000000000014</v>
+        <v>45</v>
       </c>
       <c r="K16" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>32.5</v>
+      </c>
+      <c r="L16" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>154125</v>
+      </c>
+      <c r="M16" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>120375</v>
+      </c>
+      <c r="N16" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>86625</v>
+      </c>
+      <c r="O16" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>52500</v>
+      </c>
+      <c r="P16" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>43125</v>
+      </c>
+      <c r="Q16" s="13">
         <v>71.5</v>
       </c>
-      <c r="L16" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>316575</v>
-      </c>
-      <c r="M16" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>242325</v>
-      </c>
-      <c r="N16" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>168075</v>
-      </c>
-      <c r="O16" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>93000</v>
-      </c>
-      <c r="P16" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R16" s="13">
         <v>72375</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -2266,46 +2413,52 @@
       </c>
       <c r="G17" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>704</v>
+        <v>320</v>
       </c>
       <c r="H17" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>528</v>
+        <v>240</v>
       </c>
       <c r="I17" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>352</v>
+        <v>160</v>
       </c>
       <c r="J17" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="K17" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>57.5</v>
+      </c>
+      <c r="L17" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>258750</v>
+      </c>
+      <c r="M17" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>198750</v>
+      </c>
+      <c r="N17" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>138750</v>
+      </c>
+      <c r="O17" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>78750</v>
+      </c>
+      <c r="P17" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>61875</v>
+      </c>
+      <c r="Q17" s="13">
         <v>126.50000000000001</v>
       </c>
-      <c r="L17" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>546750</v>
-      </c>
-      <c r="M17" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>414750</v>
-      </c>
-      <c r="N17" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>282750</v>
-      </c>
-      <c r="O17" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>150750</v>
-      </c>
-      <c r="P17" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R17" s="13">
         <v>113625.00000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -2330,46 +2483,52 @@
       </c>
       <c r="G18" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="H18" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>825.00000000000011</v>
+        <v>375</v>
       </c>
       <c r="I18" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="J18" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="K18" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>90</v>
+      </c>
+      <c r="L18" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>393750</v>
+      </c>
+      <c r="M18" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>300000</v>
+      </c>
+      <c r="N18" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>206250</v>
+      </c>
+      <c r="O18" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>112500</v>
+      </c>
+      <c r="P18" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>86250</v>
+      </c>
+      <c r="Q18" s="13">
         <v>198.00000000000003</v>
       </c>
-      <c r="L18" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>843750</v>
-      </c>
-      <c r="M18" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>637500.00000000023</v>
-      </c>
-      <c r="N18" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>431250</v>
-      </c>
-      <c r="O18" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>225000</v>
-      </c>
-      <c r="P18" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R18" s="13">
         <v>167250</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -2394,46 +2553,52 @@
       </c>
       <c r="G19" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>6600.0000000000009</v>
+        <v>3000</v>
       </c>
       <c r="H19" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>4950</v>
+        <v>2250</v>
       </c>
       <c r="I19" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>3300.0000000000005</v>
+        <v>1500</v>
       </c>
       <c r="J19" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1650.0000000000002</v>
+        <v>750</v>
       </c>
       <c r="K19" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>540</v>
+      </c>
+      <c r="L19" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>2268750</v>
+      </c>
+      <c r="M19" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>1706250</v>
+      </c>
+      <c r="N19" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1143750</v>
+      </c>
+      <c r="O19" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>581250</v>
+      </c>
+      <c r="P19" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>423750</v>
+      </c>
+      <c r="Q19" s="13">
         <v>1188</v>
       </c>
-      <c r="L19" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>4968750.0000000019</v>
-      </c>
-      <c r="M19" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>3731250</v>
-      </c>
-      <c r="N19" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>2493750.0000000009</v>
-      </c>
-      <c r="O19" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1256250.0000000005</v>
-      </c>
-      <c r="P19" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R19" s="13">
         <v>909750</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
@@ -2458,46 +2623,52 @@
       </c>
       <c r="G20" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>187.00000000000003</v>
+        <v>85</v>
       </c>
       <c r="H20" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>140.80000000000001</v>
+        <v>64</v>
       </c>
       <c r="I20" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>93.500000000000014</v>
+        <v>42.5</v>
       </c>
       <c r="J20" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>47.300000000000004</v>
+        <v>21.5</v>
       </c>
       <c r="K20" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>15.5</v>
+      </c>
+      <c r="L20" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>82500</v>
+      </c>
+      <c r="M20" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>66750</v>
+      </c>
+      <c r="N20" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>50625</v>
+      </c>
+      <c r="O20" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>34875</v>
+      </c>
+      <c r="P20" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>30375</v>
+      </c>
+      <c r="Q20" s="13">
         <v>34.1</v>
       </c>
-      <c r="L20" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>159000</v>
-      </c>
-      <c r="M20" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>124350</v>
-      </c>
-      <c r="N20" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>88875</v>
-      </c>
-      <c r="O20" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>54225</v>
-      </c>
-      <c r="P20" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R20" s="13">
         <v>44325</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -2522,46 +2693,52 @@
       </c>
       <c r="G21" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>990.00000000000011</v>
+        <v>450</v>
       </c>
       <c r="H21" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>742.50000000000011</v>
+        <v>337.5</v>
       </c>
       <c r="I21" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>495.00000000000006</v>
+        <v>225</v>
       </c>
       <c r="J21" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>247.50000000000003</v>
+        <v>112.5</v>
       </c>
       <c r="K21" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>81</v>
+      </c>
+      <c r="L21" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>356250</v>
+      </c>
+      <c r="M21" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>271875</v>
+      </c>
+      <c r="N21" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>187500</v>
+      </c>
+      <c r="O21" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>103125</v>
+      </c>
+      <c r="P21" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>79500</v>
+      </c>
+      <c r="Q21" s="13">
         <v>178.20000000000002</v>
       </c>
-      <c r="L21" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>761250.00000000023</v>
-      </c>
-      <c r="M21" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>575625.00000000012</v>
-      </c>
-      <c r="N21" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>390000.00000000012</v>
-      </c>
-      <c r="O21" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>204375.00000000006</v>
-      </c>
-      <c r="P21" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R21" s="13">
         <v>152400.00000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -2586,46 +2763,52 @@
       </c>
       <c r="G22" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1320</v>
+        <v>600</v>
       </c>
       <c r="H22" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>990.00000000000011</v>
+        <v>450</v>
       </c>
       <c r="I22" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="J22" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="K22" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>108</v>
+      </c>
+      <c r="L22" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>468750</v>
+      </c>
+      <c r="M22" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>356250</v>
+      </c>
+      <c r="N22" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>243750</v>
+      </c>
+      <c r="O22" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>131250</v>
+      </c>
+      <c r="P22" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>99750</v>
+      </c>
+      <c r="Q22" s="13">
         <v>237.60000000000002</v>
       </c>
-      <c r="L22" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>1008750</v>
-      </c>
-      <c r="M22" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>761250.00000000023</v>
-      </c>
-      <c r="N22" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>513750</v>
-      </c>
-      <c r="O22" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>266250</v>
-      </c>
-      <c r="P22" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R22" s="13">
         <v>196950</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2650,46 +2833,52 @@
       </c>
       <c r="G23" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1980.0000000000002</v>
+        <v>900</v>
       </c>
       <c r="H23" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1485.0000000000002</v>
+        <v>675</v>
       </c>
       <c r="I23" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>990.00000000000011</v>
+        <v>450</v>
       </c>
       <c r="J23" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>495.00000000000006</v>
+        <v>225</v>
       </c>
       <c r="K23" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>162</v>
+      </c>
+      <c r="L23" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>693750</v>
+      </c>
+      <c r="M23" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>525000</v>
+      </c>
+      <c r="N23" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>356250</v>
+      </c>
+      <c r="O23" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>187500</v>
+      </c>
+      <c r="P23" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>140250</v>
+      </c>
+      <c r="Q23" s="13">
         <v>356.40000000000003</v>
       </c>
-      <c r="L23" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>1503750.0000000005</v>
-      </c>
-      <c r="M23" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>1132500.0000000002</v>
-      </c>
-      <c r="N23" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>761250.00000000023</v>
-      </c>
-      <c r="O23" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>390000.00000000012</v>
-      </c>
-      <c r="P23" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R23" s="13">
         <v>286050.00000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
@@ -2714,46 +2903,52 @@
       </c>
       <c r="G24" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2640</v>
+        <v>1200</v>
       </c>
       <c r="H24" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1980.0000000000002</v>
+        <v>900</v>
       </c>
       <c r="I24" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1320</v>
+        <v>600</v>
       </c>
       <c r="J24" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="K24" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>216</v>
+      </c>
+      <c r="L24" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>918750</v>
+      </c>
+      <c r="M24" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>693750</v>
+      </c>
+      <c r="N24" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>468750</v>
+      </c>
+      <c r="O24" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>243750</v>
+      </c>
+      <c r="P24" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>180750</v>
+      </c>
+      <c r="Q24" s="13">
         <v>475.20000000000005</v>
       </c>
-      <c r="L24" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>1998750</v>
-      </c>
-      <c r="M24" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>1503750.0000000005</v>
-      </c>
-      <c r="N24" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>1008750</v>
-      </c>
-      <c r="O24" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>513750</v>
-      </c>
-      <c r="P24" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R24" s="13">
         <v>375150</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -2778,46 +2973,52 @@
       </c>
       <c r="G25" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2750</v>
+        <v>1250</v>
       </c>
       <c r="H25" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2062.5</v>
+        <v>937.5</v>
       </c>
       <c r="I25" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1375</v>
+        <v>625</v>
       </c>
       <c r="J25" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>687.5</v>
+        <v>312.5</v>
       </c>
       <c r="K25" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>225</v>
+      </c>
+      <c r="L25" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>956250</v>
+      </c>
+      <c r="M25" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>721875</v>
+      </c>
+      <c r="N25" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>487500</v>
+      </c>
+      <c r="O25" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>253125</v>
+      </c>
+      <c r="P25" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>187500</v>
+      </c>
+      <c r="Q25" s="13">
         <v>495.00000000000006</v>
       </c>
-      <c r="L25" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>2081250</v>
-      </c>
-      <c r="M25" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>1565625</v>
-      </c>
-      <c r="N25" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>1050000</v>
-      </c>
-      <c r="O25" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>534375</v>
-      </c>
-      <c r="P25" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R25" s="13">
         <v>390000.00000000012</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2842,46 +3043,52 @@
       </c>
       <c r="G26" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1650.0000000000002</v>
+        <v>750</v>
       </c>
       <c r="I26" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="J26" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K26" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>180</v>
+      </c>
+      <c r="L26" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>768750</v>
+      </c>
+      <c r="M26" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>581250</v>
+      </c>
+      <c r="N26" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>393750</v>
+      </c>
+      <c r="O26" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>206250</v>
+      </c>
+      <c r="P26" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>153750</v>
+      </c>
+      <c r="Q26" s="13">
         <v>396.00000000000006</v>
       </c>
-      <c r="L26" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>1668750</v>
-      </c>
-      <c r="M26" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>1256250.0000000005</v>
-      </c>
-      <c r="N26" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>843750</v>
-      </c>
-      <c r="O26" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>431250</v>
-      </c>
-      <c r="P26" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R26" s="13">
         <v>315750</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
@@ -2906,46 +3113,52 @@
       </c>
       <c r="G27" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>880.00000000000011</v>
+        <v>400</v>
       </c>
       <c r="H27" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="I27" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>440.00000000000006</v>
+        <v>200</v>
       </c>
       <c r="J27" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>220.00000000000003</v>
+        <v>100</v>
       </c>
       <c r="K27" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>72</v>
+      </c>
+      <c r="L27" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>318750</v>
+      </c>
+      <c r="M27" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>243750</v>
+      </c>
+      <c r="N27" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>168750</v>
+      </c>
+      <c r="O27" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>93750</v>
+      </c>
+      <c r="P27" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>72750</v>
+      </c>
+      <c r="Q27" s="13">
         <v>158.4</v>
       </c>
-      <c r="L27" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>678750.00000000023</v>
-      </c>
-      <c r="M27" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>513750</v>
-      </c>
-      <c r="N27" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>348750.00000000012</v>
-      </c>
-      <c r="O27" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>183750.00000000006</v>
-      </c>
-      <c r="P27" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R27" s="13">
         <v>137550</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
@@ -2970,46 +3183,52 @@
       </c>
       <c r="G28" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>825.00000000000011</v>
+        <v>375</v>
       </c>
       <c r="H28" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>619.30000000000007</v>
+        <v>281.5</v>
       </c>
       <c r="I28" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>412.50000000000006</v>
+        <v>187.5</v>
       </c>
       <c r="J28" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>206.8</v>
+        <v>94</v>
       </c>
       <c r="K28" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>67.5</v>
+      </c>
+      <c r="L28" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>300000</v>
+      </c>
+      <c r="M28" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>229875</v>
+      </c>
+      <c r="N28" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>159375</v>
+      </c>
+      <c r="O28" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>89250</v>
+      </c>
+      <c r="P28" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>69375</v>
+      </c>
+      <c r="Q28" s="13">
         <v>148.5</v>
       </c>
-      <c r="L28" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>637500.00000000023</v>
-      </c>
-      <c r="M28" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>483225.00000000012</v>
-      </c>
-      <c r="N28" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>328125.00000000012</v>
-      </c>
-      <c r="O28" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>173850</v>
-      </c>
-      <c r="P28" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R28" s="13">
         <v>130125</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
@@ -3034,46 +3253,52 @@
       </c>
       <c r="G29" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1323.3000000000002</v>
+        <v>601.5</v>
       </c>
       <c r="H29" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>992.2</v>
+        <v>451</v>
       </c>
       <c r="I29" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>662.2</v>
+        <v>301</v>
       </c>
       <c r="J29" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>331.1</v>
+        <v>150.5</v>
       </c>
       <c r="K29" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>108.5</v>
+      </c>
+      <c r="L29" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>469875</v>
+      </c>
+      <c r="M29" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>357000</v>
+      </c>
+      <c r="N29" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>244500</v>
+      </c>
+      <c r="O29" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>131625</v>
+      </c>
+      <c r="P29" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>100125</v>
+      </c>
+      <c r="Q29" s="13">
         <v>238.70000000000002</v>
       </c>
-      <c r="L29" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>1011225.0000000002</v>
-      </c>
-      <c r="M29" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>762900</v>
-      </c>
-      <c r="N29" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>515400</v>
-      </c>
-      <c r="O29" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>267075</v>
-      </c>
-      <c r="P29" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R29" s="13">
         <v>197775</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
@@ -3098,46 +3323,52 @@
       </c>
       <c r="G30" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>982.30000000000007</v>
+        <v>446.5</v>
       </c>
       <c r="H30" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>737.00000000000011</v>
+        <v>335</v>
       </c>
       <c r="I30" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>491.70000000000005</v>
+        <v>223.5</v>
       </c>
       <c r="J30" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>245.3</v>
+        <v>111.5</v>
       </c>
       <c r="K30" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>80.5</v>
+      </c>
+      <c r="L30" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>353625</v>
+      </c>
+      <c r="M30" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>270000</v>
+      </c>
+      <c r="N30" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>186375</v>
+      </c>
+      <c r="O30" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>102375</v>
+      </c>
+      <c r="P30" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>79125</v>
+      </c>
+      <c r="Q30" s="13">
         <v>177.10000000000002</v>
       </c>
-      <c r="L30" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>755475</v>
-      </c>
-      <c r="M30" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>571500.00000000012</v>
-      </c>
-      <c r="N30" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>387525</v>
-      </c>
-      <c r="O30" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>202725</v>
-      </c>
-      <c r="P30" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R30" s="13">
         <v>151575.00000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
@@ -3162,46 +3393,52 @@
       </c>
       <c r="G31" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>6600.0000000000009</v>
+        <v>3000</v>
       </c>
       <c r="H31" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>4950</v>
+        <v>2250</v>
       </c>
       <c r="I31" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>3300.0000000000005</v>
+        <v>1500</v>
       </c>
       <c r="J31" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1650.0000000000002</v>
+        <v>750</v>
       </c>
       <c r="K31" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>540</v>
+      </c>
+      <c r="L31" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>2268750</v>
+      </c>
+      <c r="M31" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>1706250</v>
+      </c>
+      <c r="N31" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1143750</v>
+      </c>
+      <c r="O31" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>581250</v>
+      </c>
+      <c r="P31" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>423750</v>
+      </c>
+      <c r="Q31" s="13">
         <v>1188</v>
       </c>
-      <c r="L31" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>4968750.0000000019</v>
-      </c>
-      <c r="M31" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>3731250</v>
-      </c>
-      <c r="N31" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>2493750.0000000009</v>
-      </c>
-      <c r="O31" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1256250.0000000005</v>
-      </c>
-      <c r="P31" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R31" s="13">
         <v>909750</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -3226,46 +3463,52 @@
       </c>
       <c r="G32" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2508</v>
+        <v>1140</v>
       </c>
       <c r="H32" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1881.0000000000002</v>
+        <v>855</v>
       </c>
       <c r="I32" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1254</v>
+        <v>570</v>
       </c>
       <c r="J32" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>627</v>
+        <v>285</v>
       </c>
       <c r="K32" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>205</v>
+      </c>
+      <c r="L32" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>873750</v>
+      </c>
+      <c r="M32" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>660000</v>
+      </c>
+      <c r="N32" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>446250</v>
+      </c>
+      <c r="O32" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>232500</v>
+      </c>
+      <c r="P32" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>172500</v>
+      </c>
+      <c r="Q32" s="13">
         <v>451.00000000000006</v>
       </c>
-      <c r="L32" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>1899750</v>
-      </c>
-      <c r="M32" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>1429500.0000000005</v>
-      </c>
-      <c r="N32" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>959250</v>
-      </c>
-      <c r="O32" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>489000</v>
-      </c>
-      <c r="P32" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R32" s="13">
         <v>357000.00000000012</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -3290,46 +3533,52 @@
       </c>
       <c r="G33" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>7458.0000000000009</v>
+        <v>3390</v>
       </c>
       <c r="H33" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>5593.5</v>
+        <v>2542.5</v>
       </c>
       <c r="I33" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>3729.0000000000005</v>
+        <v>1695</v>
       </c>
       <c r="J33" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1864.5000000000002</v>
+        <v>847.5</v>
       </c>
       <c r="K33" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>610</v>
+      </c>
+      <c r="L33" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>2561250</v>
+      </c>
+      <c r="M33" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>1925625</v>
+      </c>
+      <c r="N33" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1290000</v>
+      </c>
+      <c r="O33" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>654375</v>
+      </c>
+      <c r="P33" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>476250</v>
+      </c>
+      <c r="Q33" s="13">
         <v>1342</v>
       </c>
-      <c r="L33" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>5612250.0000000019</v>
-      </c>
-      <c r="M33" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>4213875</v>
-      </c>
-      <c r="N33" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>2815500.0000000009</v>
-      </c>
-      <c r="O33" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1417125.0000000005</v>
-      </c>
-      <c r="P33" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R33" s="13">
         <v>1025250</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
@@ -3354,46 +3603,52 @@
       </c>
       <c r="G34" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>3729.0000000000005</v>
+        <v>1695</v>
       </c>
       <c r="H34" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2797.3</v>
+        <v>1271.5</v>
       </c>
       <c r="I34" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1864.5000000000002</v>
+        <v>847.5</v>
       </c>
       <c r="J34" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>932.80000000000007</v>
+        <v>424</v>
       </c>
       <c r="K34" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>305</v>
+      </c>
+      <c r="L34" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>1290000</v>
+      </c>
+      <c r="M34" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>972375</v>
+      </c>
+      <c r="N34" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>654375</v>
+      </c>
+      <c r="O34" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>336750</v>
+      </c>
+      <c r="P34" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>247500</v>
+      </c>
+      <c r="Q34" s="13">
         <v>671</v>
       </c>
-      <c r="L34" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>2815500.0000000009</v>
-      </c>
-      <c r="M34" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>2116725</v>
-      </c>
-      <c r="N34" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>1417125.0000000005</v>
-      </c>
-      <c r="O34" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>718350</v>
-      </c>
-      <c r="P34" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R34" s="13">
         <v>522000</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
@@ -3418,46 +3673,52 @@
       </c>
       <c r="G35" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>4974.2000000000007</v>
+        <v>2261</v>
       </c>
       <c r="H35" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>3731.2000000000003</v>
+        <v>1696</v>
       </c>
       <c r="I35" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2487.1000000000004</v>
+        <v>1130.5</v>
       </c>
       <c r="J35" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1244.1000000000001</v>
+        <v>565.5</v>
       </c>
       <c r="K35" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>407</v>
+      </c>
+      <c r="L35" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>1714500</v>
+      </c>
+      <c r="M35" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>1290750</v>
+      </c>
+      <c r="N35" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>866625</v>
+      </c>
+      <c r="O35" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>442875</v>
+      </c>
+      <c r="P35" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>324000</v>
+      </c>
+      <c r="Q35" s="13">
         <v>895.40000000000009</v>
       </c>
-      <c r="L35" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>3749400.0000000009</v>
-      </c>
-      <c r="M35" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>2817150</v>
-      </c>
-      <c r="N35" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>1884075.0000000005</v>
-      </c>
-      <c r="O35" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>951825.00000000023</v>
-      </c>
-      <c r="P35" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R35" s="13">
         <v>690300</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
@@ -3482,46 +3743,52 @@
       </c>
       <c r="G36" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>8800</v>
+        <v>4000</v>
       </c>
       <c r="H36" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>6600.0000000000009</v>
+        <v>3000</v>
       </c>
       <c r="I36" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="J36" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="K36" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>720</v>
+      </c>
+      <c r="L36" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>3018750</v>
+      </c>
+      <c r="M36" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>2268750</v>
+      </c>
+      <c r="N36" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1518750</v>
+      </c>
+      <c r="O36" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>768750</v>
+      </c>
+      <c r="P36" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>558750</v>
+      </c>
+      <c r="Q36" s="13">
         <v>1584.0000000000002</v>
       </c>
-      <c r="L36" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>6618750</v>
-      </c>
-      <c r="M36" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>4968750.0000000019</v>
-      </c>
-      <c r="N36" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>3318750</v>
-      </c>
-      <c r="O36" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1668750</v>
-      </c>
-      <c r="P36" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R36" s="13">
         <v>1206750.0000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
@@ -3546,46 +3813,52 @@
       </c>
       <c r="G37" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>8085.0000000000009</v>
+        <v>3675</v>
       </c>
       <c r="H37" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>6064.3</v>
+        <v>2756.5</v>
       </c>
       <c r="I37" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>4042.5000000000005</v>
+        <v>1837.5</v>
       </c>
       <c r="J37" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2021.8000000000002</v>
+        <v>919</v>
       </c>
       <c r="K37" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>661.5</v>
+      </c>
+      <c r="L37" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>2775000</v>
+      </c>
+      <c r="M37" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>2086125</v>
+      </c>
+      <c r="N37" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1396875</v>
+      </c>
+      <c r="O37" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>708000</v>
+      </c>
+      <c r="P37" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>514875</v>
+      </c>
+      <c r="Q37" s="13">
         <v>1455.3000000000002</v>
       </c>
-      <c r="L37" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>6082500.0000000019</v>
-      </c>
-      <c r="M37" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>4566975</v>
-      </c>
-      <c r="N37" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>3050625.0000000009</v>
-      </c>
-      <c r="O37" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1535100</v>
-      </c>
-      <c r="P37" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R37" s="13">
         <v>1110225.0000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>61</v>
       </c>
@@ -3610,46 +3883,52 @@
       </c>
       <c r="G38" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>189.20000000000002</v>
+        <v>86</v>
       </c>
       <c r="H38" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>141.9</v>
+        <v>64.5</v>
       </c>
       <c r="I38" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>94.600000000000009</v>
+        <v>43</v>
       </c>
       <c r="J38" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>47.300000000000004</v>
+        <v>21.5</v>
       </c>
       <c r="K38" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>15.5</v>
+      </c>
+      <c r="L38" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>83250</v>
+      </c>
+      <c r="M38" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>67125</v>
+      </c>
+      <c r="N38" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>51000</v>
+      </c>
+      <c r="O38" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>34875</v>
+      </c>
+      <c r="P38" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>30375</v>
+      </c>
+      <c r="Q38" s="13">
         <v>34.1</v>
       </c>
-      <c r="L38" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>160650</v>
-      </c>
-      <c r="M38" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>125175</v>
-      </c>
-      <c r="N38" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>89700</v>
-      </c>
-      <c r="O38" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>54225</v>
-      </c>
-      <c r="P38" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R38" s="13">
         <v>44325</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
@@ -3674,46 +3953,52 @@
       </c>
       <c r="G39" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>99.000000000000014</v>
+        <v>45</v>
       </c>
       <c r="H39" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>74.800000000000011</v>
+        <v>34</v>
       </c>
       <c r="I39" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>49.500000000000007</v>
+        <v>22.5</v>
       </c>
       <c r="J39" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>25.3</v>
+        <v>11.5</v>
       </c>
       <c r="K39" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>8</v>
+      </c>
+      <c r="L39" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>52500</v>
+      </c>
+      <c r="M39" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>44250</v>
+      </c>
+      <c r="N39" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>35625</v>
+      </c>
+      <c r="O39" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>27375</v>
+      </c>
+      <c r="P39" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>24750</v>
+      </c>
+      <c r="Q39" s="13">
         <v>17.600000000000001</v>
       </c>
-      <c r="L39" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>93000</v>
-      </c>
-      <c r="M39" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>74850.000000000015</v>
-      </c>
-      <c r="N39" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>55875</v>
-      </c>
-      <c r="O39" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>37725</v>
-      </c>
-      <c r="P39" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R39" s="13">
         <v>31950</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>11</v>
       </c>
@@ -3738,46 +4023,52 @@
       </c>
       <c r="G40" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>99.000000000000014</v>
+        <v>45</v>
       </c>
       <c r="H40" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>74.800000000000011</v>
+        <v>34</v>
       </c>
       <c r="I40" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>49.500000000000007</v>
+        <v>22.5</v>
       </c>
       <c r="J40" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>25.3</v>
+        <v>11.5</v>
       </c>
       <c r="K40" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>8</v>
+      </c>
+      <c r="L40" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>52500</v>
+      </c>
+      <c r="M40" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>44250</v>
+      </c>
+      <c r="N40" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>35625</v>
+      </c>
+      <c r="O40" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>27375</v>
+      </c>
+      <c r="P40" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>24750</v>
+      </c>
+      <c r="Q40" s="13">
         <v>17.600000000000001</v>
       </c>
-      <c r="L40" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>93000</v>
-      </c>
-      <c r="M40" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>74850.000000000015</v>
-      </c>
-      <c r="N40" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>55875</v>
-      </c>
-      <c r="O40" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>37725</v>
-      </c>
-      <c r="P40" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R40" s="13">
         <v>31950</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -3802,46 +4093,52 @@
       </c>
       <c r="G41" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>55.000000000000007</v>
+        <v>25</v>
       </c>
       <c r="H41" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>41.800000000000004</v>
+        <v>19</v>
       </c>
       <c r="I41" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>27.500000000000004</v>
+        <v>12.5</v>
       </c>
       <c r="J41" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>14.3</v>
+        <v>6.5</v>
       </c>
       <c r="K41" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>4.5</v>
+      </c>
+      <c r="L41" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>37500</v>
+      </c>
+      <c r="M41" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>33000</v>
+      </c>
+      <c r="N41" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>28125</v>
+      </c>
+      <c r="O41" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>23625</v>
+      </c>
+      <c r="P41" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>22125</v>
+      </c>
+      <c r="Q41" s="13">
         <v>9.9</v>
       </c>
-      <c r="L41" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>60000.000000000015</v>
-      </c>
-      <c r="M41" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>50100</v>
-      </c>
-      <c r="N41" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>39375</v>
-      </c>
-      <c r="O41" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>29475</v>
-      </c>
-      <c r="P41" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R41" s="13">
         <v>26175</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -3866,46 +4163,52 @@
       </c>
       <c r="G42" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>99.000000000000014</v>
+        <v>45</v>
       </c>
       <c r="H42" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>74.800000000000011</v>
+        <v>34</v>
       </c>
       <c r="I42" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>49.500000000000007</v>
+        <v>22.5</v>
       </c>
       <c r="J42" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>25.3</v>
+        <v>11.5</v>
       </c>
       <c r="K42" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>8</v>
+      </c>
+      <c r="L42" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>52500</v>
+      </c>
+      <c r="M42" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>44250</v>
+      </c>
+      <c r="N42" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>35625</v>
+      </c>
+      <c r="O42" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>27375</v>
+      </c>
+      <c r="P42" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>24750</v>
+      </c>
+      <c r="Q42" s="13">
         <v>17.600000000000001</v>
       </c>
-      <c r="L42" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>93000</v>
-      </c>
-      <c r="M42" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>74850.000000000015</v>
-      </c>
-      <c r="N42" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>55875</v>
-      </c>
-      <c r="O42" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>37725</v>
-      </c>
-      <c r="P42" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R42" s="13">
         <v>31950</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>13</v>
       </c>
@@ -3930,46 +4233,52 @@
       </c>
       <c r="G43" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>198.00000000000003</v>
+        <v>90</v>
       </c>
       <c r="H43" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>148.5</v>
+        <v>67.5</v>
       </c>
       <c r="I43" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>99.000000000000014</v>
+        <v>45</v>
       </c>
       <c r="J43" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>49.500000000000007</v>
+        <v>22.5</v>
       </c>
       <c r="K43" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>16</v>
+      </c>
+      <c r="L43" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>86250</v>
+      </c>
+      <c r="M43" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>69375</v>
+      </c>
+      <c r="N43" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>52500</v>
+      </c>
+      <c r="O43" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>35625</v>
+      </c>
+      <c r="P43" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>30750</v>
+      </c>
+      <c r="Q43" s="13">
         <v>35.200000000000003</v>
       </c>
-      <c r="L43" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>167250</v>
-      </c>
-      <c r="M43" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>130125</v>
-      </c>
-      <c r="N43" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>93000</v>
-      </c>
-      <c r="O43" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>55875</v>
-      </c>
-      <c r="P43" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R43" s="13">
         <v>45150</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
@@ -3994,46 +4303,52 @@
       </c>
       <c r="G44" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>198.00000000000003</v>
+        <v>90</v>
       </c>
       <c r="H44" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>148.5</v>
+        <v>67.5</v>
       </c>
       <c r="I44" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>99.000000000000014</v>
+        <v>45</v>
       </c>
       <c r="J44" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>49.500000000000007</v>
+        <v>22.5</v>
       </c>
       <c r="K44" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>16</v>
+      </c>
+      <c r="L44" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>86250</v>
+      </c>
+      <c r="M44" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>69375</v>
+      </c>
+      <c r="N44" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>52500</v>
+      </c>
+      <c r="O44" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>35625</v>
+      </c>
+      <c r="P44" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>30750</v>
+      </c>
+      <c r="Q44" s="13">
         <v>35.200000000000003</v>
       </c>
-      <c r="L44" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>167250</v>
-      </c>
-      <c r="M44" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>130125</v>
-      </c>
-      <c r="N44" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>93000</v>
-      </c>
-      <c r="O44" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>55875</v>
-      </c>
-      <c r="P44" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R44" s="13">
         <v>45150</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
@@ -4058,46 +4373,52 @@
       </c>
       <c r="G45" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1323.3000000000002</v>
+        <v>601.5</v>
       </c>
       <c r="H45" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>992.2</v>
+        <v>451</v>
       </c>
       <c r="I45" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>662.2</v>
+        <v>301</v>
       </c>
       <c r="J45" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>331.1</v>
+        <v>150.5</v>
       </c>
       <c r="K45" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>108.5</v>
+      </c>
+      <c r="L45" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>469875</v>
+      </c>
+      <c r="M45" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>357000</v>
+      </c>
+      <c r="N45" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>244500</v>
+      </c>
+      <c r="O45" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>131625</v>
+      </c>
+      <c r="P45" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>100125</v>
+      </c>
+      <c r="Q45" s="13">
         <v>238.70000000000002</v>
       </c>
-      <c r="L45" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>1011225.0000000002</v>
-      </c>
-      <c r="M45" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>762900</v>
-      </c>
-      <c r="N45" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>515400</v>
-      </c>
-      <c r="O45" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>267075</v>
-      </c>
-      <c r="P45" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R45" s="13">
         <v>197775</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
@@ -4122,46 +4443,52 @@
       </c>
       <c r="G46" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>5852.0000000000009</v>
+        <v>2660</v>
       </c>
       <c r="H46" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>4389</v>
+        <v>1995</v>
       </c>
       <c r="I46" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2926.0000000000005</v>
+        <v>1330</v>
       </c>
       <c r="J46" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1463.0000000000002</v>
+        <v>665</v>
       </c>
       <c r="K46" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>479</v>
+      </c>
+      <c r="L46" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>2013750</v>
+      </c>
+      <c r="M46" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>1515000</v>
+      </c>
+      <c r="N46" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1016250</v>
+      </c>
+      <c r="O46" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>517500</v>
+      </c>
+      <c r="P46" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>378000</v>
+      </c>
+      <c r="Q46" s="13">
         <v>1053.8000000000002</v>
       </c>
-      <c r="L46" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>4407750.0000000009</v>
-      </c>
-      <c r="M46" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>3310500</v>
-      </c>
-      <c r="N46" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>2213250.0000000005</v>
-      </c>
-      <c r="O46" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1116000.0000000002</v>
-      </c>
-      <c r="P46" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R46" s="13">
         <v>809100.00000000023</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>30</v>
       </c>
@@ -4186,46 +4513,52 @@
       </c>
       <c r="G47" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>5852.0000000000009</v>
+        <v>2660</v>
       </c>
       <c r="H47" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>4389</v>
+        <v>1995</v>
       </c>
       <c r="I47" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2926.0000000000005</v>
+        <v>1330</v>
       </c>
       <c r="J47" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1463.0000000000002</v>
+        <v>665</v>
       </c>
       <c r="K47" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>479</v>
+      </c>
+      <c r="L47" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>2013750</v>
+      </c>
+      <c r="M47" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>1515000</v>
+      </c>
+      <c r="N47" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1016250</v>
+      </c>
+      <c r="O47" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>517500</v>
+      </c>
+      <c r="P47" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>378000</v>
+      </c>
+      <c r="Q47" s="13">
         <v>1053.8000000000002</v>
       </c>
-      <c r="L47" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>4407750.0000000009</v>
-      </c>
-      <c r="M47" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>3310500</v>
-      </c>
-      <c r="N47" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>2213250.0000000005</v>
-      </c>
-      <c r="O47" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1116000.0000000002</v>
-      </c>
-      <c r="P47" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R47" s="13">
         <v>809100.00000000023</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>33</v>
       </c>
@@ -4250,46 +4583,52 @@
       </c>
       <c r="G48" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>6655.0000000000009</v>
+        <v>3025</v>
       </c>
       <c r="H48" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>4991.8</v>
+        <v>2269</v>
       </c>
       <c r="I48" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>3327.5000000000005</v>
+        <v>1512.5</v>
       </c>
       <c r="J48" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1664.3000000000002</v>
+        <v>756.5</v>
       </c>
       <c r="K48" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>544.5</v>
+      </c>
+      <c r="L48" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>2287500</v>
+      </c>
+      <c r="M48" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>1720500</v>
+      </c>
+      <c r="N48" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1153125</v>
+      </c>
+      <c r="O48" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>586125</v>
+      </c>
+      <c r="P48" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>427125</v>
+      </c>
+      <c r="Q48" s="13">
         <v>1197.9000000000001</v>
       </c>
-      <c r="L48" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>5010000.0000000019</v>
-      </c>
-      <c r="M48" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>3762600</v>
-      </c>
-      <c r="N48" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>2514375.0000000009</v>
-      </c>
-      <c r="O48" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1266975</v>
-      </c>
-      <c r="P48" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R48" s="13">
         <v>917175</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
@@ -4314,46 +4653,52 @@
       </c>
       <c r="G49" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>7939.8000000000011</v>
+        <v>3609</v>
       </c>
       <c r="H49" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>5955.4000000000005</v>
+        <v>2707</v>
       </c>
       <c r="I49" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>3969.9000000000005</v>
+        <v>1804.5</v>
       </c>
       <c r="J49" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1985.5000000000002</v>
+        <v>902.5</v>
       </c>
       <c r="K49" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>649.5</v>
+      </c>
+      <c r="L49" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>2725500</v>
+      </c>
+      <c r="M49" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>2049000</v>
+      </c>
+      <c r="N49" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1372125</v>
+      </c>
+      <c r="O49" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>695625</v>
+      </c>
+      <c r="P49" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>505875</v>
+      </c>
+      <c r="Q49" s="13">
         <v>1428.9</v>
       </c>
-      <c r="L49" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>5973600.0000000019</v>
-      </c>
-      <c r="M49" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>4485300.0000000009</v>
-      </c>
-      <c r="N49" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>2996175.0000000009</v>
-      </c>
-      <c r="O49" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1507875.0000000005</v>
-      </c>
-      <c r="P49" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R49" s="13">
         <v>1090425</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
@@ -4378,46 +4723,52 @@
       </c>
       <c r="G50" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>7939.8000000000011</v>
+        <v>3609</v>
       </c>
       <c r="H50" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>5955.4000000000005</v>
+        <v>2707</v>
       </c>
       <c r="I50" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>3969.9000000000005</v>
+        <v>1804.5</v>
       </c>
       <c r="J50" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1985.5000000000002</v>
+        <v>902.5</v>
       </c>
       <c r="K50" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>649.5</v>
+      </c>
+      <c r="L50" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>2725500</v>
+      </c>
+      <c r="M50" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>2049000</v>
+      </c>
+      <c r="N50" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1372125</v>
+      </c>
+      <c r="O50" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>695625</v>
+      </c>
+      <c r="P50" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>505875</v>
+      </c>
+      <c r="Q50" s="13">
         <v>1428.9</v>
       </c>
-      <c r="L50" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>5973600.0000000019</v>
-      </c>
-      <c r="M50" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>4485300.0000000009</v>
-      </c>
-      <c r="N50" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>2996175.0000000009</v>
-      </c>
-      <c r="O50" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1507875.0000000005</v>
-      </c>
-      <c r="P50" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R50" s="13">
         <v>1090425</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -4442,46 +4793,52 @@
       </c>
       <c r="G51" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>7700.0000000000009</v>
+        <v>3500</v>
       </c>
       <c r="H51" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>5775.0000000000009</v>
+        <v>2625</v>
       </c>
       <c r="I51" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>3850.0000000000005</v>
+        <v>1750</v>
       </c>
       <c r="J51" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>1925.0000000000002</v>
+        <v>875</v>
       </c>
       <c r="K51" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>630</v>
+      </c>
+      <c r="L51" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>2643750</v>
+      </c>
+      <c r="M51" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>1987500</v>
+      </c>
+      <c r="N51" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1331250</v>
+      </c>
+      <c r="O51" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>675000</v>
+      </c>
+      <c r="P51" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>491250</v>
+      </c>
+      <c r="Q51" s="13">
         <v>1386</v>
       </c>
-      <c r="L51" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>5793750.0000000019</v>
-      </c>
-      <c r="M51" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>4350000.0000000009</v>
-      </c>
-      <c r="N51" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>2906250.0000000009</v>
-      </c>
-      <c r="O51" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1462500.0000000005</v>
-      </c>
-      <c r="P51" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R51" s="13">
         <v>1058250</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>31</v>
       </c>
@@ -4506,46 +4863,52 @@
       </c>
       <c r="G52" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>8800</v>
+        <v>4000</v>
       </c>
       <c r="H52" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>6600.0000000000009</v>
+        <v>3000</v>
       </c>
       <c r="I52" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="J52" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="K52" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>720</v>
+      </c>
+      <c r="L52" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>3018750</v>
+      </c>
+      <c r="M52" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>2268750</v>
+      </c>
+      <c r="N52" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>1518750</v>
+      </c>
+      <c r="O52" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>768750</v>
+      </c>
+      <c r="P52" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>558750</v>
+      </c>
+      <c r="Q52" s="13">
         <v>1584.0000000000002</v>
       </c>
-      <c r="L52" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>6618750</v>
-      </c>
-      <c r="M52" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>4968750.0000000019</v>
-      </c>
-      <c r="N52" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>3318750</v>
-      </c>
-      <c r="O52" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>1668750</v>
-      </c>
-      <c r="P52" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R52" s="13">
         <v>1206750.0000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
@@ -4570,46 +4933,52 @@
       </c>
       <c r="G53" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>187.00000000000003</v>
+        <v>85</v>
       </c>
       <c r="H53" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>140.80000000000001</v>
+        <v>64</v>
       </c>
       <c r="I53" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>93.500000000000014</v>
+        <v>42.5</v>
       </c>
       <c r="J53" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>47.300000000000004</v>
+        <v>21.5</v>
       </c>
       <c r="K53" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>15.5</v>
+      </c>
+      <c r="L53" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>82500</v>
+      </c>
+      <c r="M53" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>66750</v>
+      </c>
+      <c r="N53" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>50625</v>
+      </c>
+      <c r="O53" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>34875</v>
+      </c>
+      <c r="P53" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>30375</v>
+      </c>
+      <c r="Q53" s="13">
         <v>34.1</v>
       </c>
-      <c r="L53" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>159000</v>
-      </c>
-      <c r="M53" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>124350</v>
-      </c>
-      <c r="N53" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>88875</v>
-      </c>
-      <c r="O53" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>54225</v>
-      </c>
-      <c r="P53" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R53" s="13">
         <v>44325</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -4634,42 +5003,48 @@
       </c>
       <c r="G54" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[Current Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>220.00000000000003</v>
+        <v>100</v>
       </c>
       <c r="H54" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.75 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="I54" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.5 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>110.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="J54" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.25 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
-        <v>55.000000000000007</v>
+        <v>25</v>
       </c>
       <c r="K54" s="13">
         <f>PV*MV*(MIN(Parts[[#This Row],[0.18 Cost]]/(InvE+(BuildE*(MAX(SYBC*0.125,1)+1))),Cost))</f>
+        <v>18</v>
+      </c>
+      <c r="L54" s="10">
+        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
+        <v>93750</v>
+      </c>
+      <c r="M54" s="10">
+        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
+        <v>75000</v>
+      </c>
+      <c r="N54" s="10">
+        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
+        <v>56250</v>
+      </c>
+      <c r="O54" s="10">
+        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
+        <v>37500</v>
+      </c>
+      <c r="P54" s="10">
+        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+        <v>32250</v>
+      </c>
+      <c r="Q54" s="13">
         <v>39.6</v>
       </c>
-      <c r="L54" s="10">
-        <f>(500 + (Parts[[#This Row],[Current EF]]*20))*OMult*1.5</f>
-        <v>183750.00000000006</v>
-      </c>
-      <c r="M54" s="10">
-        <f>(500 + (Parts[[#This Row],[0.75 EF]]*20))*OMult*1.5</f>
-        <v>142500</v>
-      </c>
-      <c r="N54" s="10">
-        <f>(500 + (Parts[[#This Row],[0.5 EF]]*20))*OMult*1.5</f>
-        <v>101250.00000000003</v>
-      </c>
-      <c r="O54" s="10">
-        <f>(500 + (Parts[[#This Row],[0.25 EF]]*20))*OMult*1.5</f>
-        <v>60000.000000000015</v>
-      </c>
-      <c r="P54" s="10">
-        <f>(500 + (Parts[[#This Row],[0.18 EF]]*20))*OMult*1.5</f>
+      <c r="R54" s="13">
         <v>48450</v>
       </c>
     </row>
